--- a/data/polyps.xlsx
+++ b/data/polyps.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiewagner/repos/lynch-syndrome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9424E4-B107-B547-94EC-7DA5ECBE6446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F74C2-03FE-4E4B-AC0E-94669E343358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
+    <workbookView xWindow="6300" yWindow="760" windowWidth="27940" windowHeight="18880" activeTab="3" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="engel_2019_polyp" sheetId="1" r:id="rId1"/>
+    <sheet name="Myles_Adenoma_Risk_Gene" sheetId="3" r:id="rId1"/>
+    <sheet name="Myles_Adenoma_Risk" sheetId="2" r:id="rId2"/>
+    <sheet name="engel_2020_10yrisk" sheetId="1" r:id="rId3"/>
+    <sheet name="mecklin_2007_km" sheetId="7" r:id="rId4"/>
+    <sheet name="moller_2024" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="43">
   <si>
     <t>MSH6</t>
   </si>
@@ -70,15 +74,133 @@
   <si>
     <t>10-year risk of adenomas following index colonoscopy (%)</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>PMS2</t>
+  </si>
+  <si>
+    <t>cumulative probability of advanced adenoma from Myles' model_inputs.xlsx</t>
+  </si>
+  <si>
+    <t>cumulative probability of adenoma from Myles' model_inputs.xlsx</t>
+  </si>
+  <si>
+    <t>Adenoma risk</t>
+  </si>
+  <si>
+    <t>Cumulative probability of developing an adenoma (%)</t>
+  </si>
+  <si>
+    <t>USED IN MODEL</t>
+  </si>
+  <si>
+    <t>NOT USED IN MODEL</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n adenomas</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Cumulative risk of adenoma</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y</t>
+  </si>
+  <si>
+    <t>val_type</t>
+  </si>
+  <si>
+    <t>cumulative risk of adenoma (%) and CI</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>fig 2</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>table 1</t>
+  </si>
+  <si>
+    <t>total follow-up years</t>
+  </si>
+  <si>
+    <t>mean follow-up years</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of carriers by sex and gene, average age and number of adenomas with 95% CI, number of adenomas by grade, and total number of adenomas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,8 +226,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,11 +566,1709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C50D61-5141-BA4F-A099-E8EC8E426B7F}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>40.6372</v>
+      </c>
+      <c r="C5">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0.502</v>
+      </c>
+      <c r="F5">
+        <v>41.057099999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.577</v>
+      </c>
+      <c r="H5">
+        <v>41.057099999999998</v>
+      </c>
+      <c r="I5">
+        <v>1.577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>41.274299999999997</v>
+      </c>
+      <c r="C6">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="D6">
+        <v>41.416800000000002</v>
+      </c>
+      <c r="E6">
+        <v>2.331</v>
+      </c>
+      <c r="F6">
+        <v>41.865400000000001</v>
+      </c>
+      <c r="G6">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="H6">
+        <v>41.865400000000001</v>
+      </c>
+      <c r="I6">
+        <v>5.8109999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>42.194699999999997</v>
+      </c>
+      <c r="C7">
+        <v>10.048</v>
+      </c>
+      <c r="D7">
+        <v>42.0901</v>
+      </c>
+      <c r="E7">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="F7">
+        <v>42.567700000000002</v>
+      </c>
+      <c r="G7">
+        <v>10.311</v>
+      </c>
+      <c r="H7">
+        <v>42.567700000000002</v>
+      </c>
+      <c r="I7">
+        <v>10.311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>43.115000000000002</v>
+      </c>
+      <c r="C8">
+        <v>14.279</v>
+      </c>
+      <c r="D8">
+        <v>42.763399999999997</v>
+      </c>
+      <c r="E8">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="F8">
+        <v>43.234499999999997</v>
+      </c>
+      <c r="G8">
+        <v>15.076000000000001</v>
+      </c>
+      <c r="H8">
+        <v>43.234499999999997</v>
+      </c>
+      <c r="I8">
+        <v>15.076000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>43.858400000000003</v>
+      </c>
+      <c r="C9">
+        <v>16.919</v>
+      </c>
+      <c r="D9">
+        <v>43.260100000000001</v>
+      </c>
+      <c r="E9">
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="F9">
+        <v>43.692500000000003</v>
+      </c>
+      <c r="G9">
+        <v>15.866</v>
+      </c>
+      <c r="H9">
+        <v>43.692500000000003</v>
+      </c>
+      <c r="I9">
+        <v>15.866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>44.955800000000004</v>
+      </c>
+      <c r="C10">
+        <v>21.943000000000001</v>
+      </c>
+      <c r="D10">
+        <v>44.039900000000003</v>
+      </c>
+      <c r="E10">
+        <v>12.837</v>
+      </c>
+      <c r="F10">
+        <v>44.149000000000001</v>
+      </c>
+      <c r="G10">
+        <v>18.777999999999999</v>
+      </c>
+      <c r="H10">
+        <v>44.149000000000001</v>
+      </c>
+      <c r="I10">
+        <v>18.777999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>45.911499999999997</v>
+      </c>
+      <c r="C11">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="D11">
+        <v>44.925699999999999</v>
+      </c>
+      <c r="E11">
+        <v>15.189</v>
+      </c>
+      <c r="F11">
+        <v>44.783000000000001</v>
+      </c>
+      <c r="G11">
+        <v>20.096</v>
+      </c>
+      <c r="H11">
+        <v>44.783000000000001</v>
+      </c>
+      <c r="I11">
+        <v>20.096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>46.654899999999998</v>
+      </c>
+      <c r="C12">
+        <v>28.28</v>
+      </c>
+      <c r="D12">
+        <v>45.563800000000001</v>
+      </c>
+      <c r="E12">
+        <v>17.815999999999999</v>
+      </c>
+      <c r="F12">
+        <v>45.732399999999998</v>
+      </c>
+      <c r="G12">
+        <v>24.327000000000002</v>
+      </c>
+      <c r="H12">
+        <v>45.732399999999998</v>
+      </c>
+      <c r="I12">
+        <v>24.327000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>47.327399999999997</v>
+      </c>
+      <c r="C13">
+        <v>31.986000000000001</v>
+      </c>
+      <c r="D13">
+        <v>46.308399999999999</v>
+      </c>
+      <c r="E13">
+        <v>21.234000000000002</v>
+      </c>
+      <c r="F13">
+        <v>46.609900000000003</v>
+      </c>
+      <c r="G13">
+        <v>30.416</v>
+      </c>
+      <c r="H13">
+        <v>46.609900000000003</v>
+      </c>
+      <c r="I13">
+        <v>30.416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>48.247799999999998</v>
+      </c>
+      <c r="C14">
+        <v>36.482999999999997</v>
+      </c>
+      <c r="D14">
+        <v>47.371400000000001</v>
+      </c>
+      <c r="E14">
+        <v>24.11</v>
+      </c>
+      <c r="F14">
+        <v>47.526499999999999</v>
+      </c>
+      <c r="G14">
+        <v>31.2</v>
+      </c>
+      <c r="H14">
+        <v>47.526499999999999</v>
+      </c>
+      <c r="I14">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>49.522100000000002</v>
+      </c>
+      <c r="C15">
+        <v>42.3</v>
+      </c>
+      <c r="D15">
+        <v>48.009399999999999</v>
+      </c>
+      <c r="E15">
+        <v>26.472000000000001</v>
+      </c>
+      <c r="F15">
+        <v>48.408000000000001</v>
+      </c>
+      <c r="G15">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="H15">
+        <v>48.408000000000001</v>
+      </c>
+      <c r="I15">
+        <v>31.719000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>50.477899999999998</v>
+      </c>
+      <c r="C16">
+        <v>45.466000000000001</v>
+      </c>
+      <c r="D16">
+        <v>48.930700000000002</v>
+      </c>
+      <c r="E16">
+        <v>29.353000000000002</v>
+      </c>
+      <c r="F16">
+        <v>49.217599999999997</v>
+      </c>
+      <c r="G16">
+        <v>34.094999999999999</v>
+      </c>
+      <c r="H16">
+        <v>49.217599999999997</v>
+      </c>
+      <c r="I16">
+        <v>34.094999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>51.1858</v>
+      </c>
+      <c r="C17">
+        <v>48.372999999999998</v>
+      </c>
+      <c r="D17">
+        <v>49.887099999999997</v>
+      </c>
+      <c r="E17">
+        <v>31.172000000000001</v>
+      </c>
+      <c r="F17">
+        <v>50.025100000000002</v>
+      </c>
+      <c r="G17">
+        <v>39.39</v>
+      </c>
+      <c r="H17">
+        <v>50.025100000000002</v>
+      </c>
+      <c r="I17">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>52.318600000000004</v>
+      </c>
+      <c r="C18">
+        <v>51.533999999999999</v>
+      </c>
+      <c r="D18">
+        <v>50.843699999999998</v>
+      </c>
+      <c r="E18">
+        <v>33.521000000000001</v>
+      </c>
+      <c r="F18">
+        <v>50.799599999999998</v>
+      </c>
+      <c r="G18">
+        <v>41.500999999999998</v>
+      </c>
+      <c r="H18">
+        <v>50.799599999999998</v>
+      </c>
+      <c r="I18">
+        <v>41.500999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>53.309699999999999</v>
+      </c>
+      <c r="C19">
+        <v>54.965000000000003</v>
+      </c>
+      <c r="D19">
+        <v>51.517600000000002</v>
+      </c>
+      <c r="E19">
+        <v>37.207999999999998</v>
+      </c>
+      <c r="F19">
+        <v>51.821800000000003</v>
+      </c>
+      <c r="G19">
+        <v>42.548999999999999</v>
+      </c>
+      <c r="H19">
+        <v>51.821800000000003</v>
+      </c>
+      <c r="I19">
+        <v>42.548999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>54.265500000000003</v>
+      </c>
+      <c r="C20">
+        <v>57.865000000000002</v>
+      </c>
+      <c r="D20">
+        <v>52.368200000000002</v>
+      </c>
+      <c r="E20">
+        <v>40.091000000000001</v>
+      </c>
+      <c r="F20">
+        <v>52.383000000000003</v>
+      </c>
+      <c r="G20">
+        <v>47.051000000000002</v>
+      </c>
+      <c r="H20">
+        <v>52.383000000000003</v>
+      </c>
+      <c r="I20">
+        <v>47.051000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>55.221200000000003</v>
+      </c>
+      <c r="C21">
+        <v>58.904000000000003</v>
+      </c>
+      <c r="D21">
+        <v>53.112099999999998</v>
+      </c>
+      <c r="E21">
+        <v>41.652999999999999</v>
+      </c>
+      <c r="F21">
+        <v>53.192799999999998</v>
+      </c>
+      <c r="G21">
+        <v>49.161999999999999</v>
+      </c>
+      <c r="H21">
+        <v>53.192799999999998</v>
+      </c>
+      <c r="I21">
+        <v>49.161999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>56.247799999999998</v>
+      </c>
+      <c r="C22">
+        <v>60.472000000000001</v>
+      </c>
+      <c r="D22">
+        <v>54.068399999999997</v>
+      </c>
+      <c r="E22">
+        <v>43.207000000000001</v>
+      </c>
+      <c r="F22">
+        <v>54.178100000000001</v>
+      </c>
+      <c r="G22">
+        <v>52.597000000000001</v>
+      </c>
+      <c r="H22">
+        <v>54.178100000000001</v>
+      </c>
+      <c r="I22">
+        <v>52.597000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>57.168100000000003</v>
+      </c>
+      <c r="C23">
+        <v>63.905000000000001</v>
+      </c>
+      <c r="D23">
+        <v>54.9893</v>
+      </c>
+      <c r="E23">
+        <v>44.762</v>
+      </c>
+      <c r="F23">
+        <v>55.304200000000002</v>
+      </c>
+      <c r="G23">
+        <v>56.295999999999999</v>
+      </c>
+      <c r="H23">
+        <v>55.304200000000002</v>
+      </c>
+      <c r="I23">
+        <v>56.295999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>57.946899999999999</v>
+      </c>
+      <c r="C24">
+        <v>67.075999999999993</v>
+      </c>
+      <c r="D24">
+        <v>55.945599999999999</v>
+      </c>
+      <c r="E24">
+        <v>46.314999999999998</v>
+      </c>
+      <c r="F24">
+        <v>56.75</v>
+      </c>
+      <c r="G24">
+        <v>56.807000000000002</v>
+      </c>
+      <c r="H24">
+        <v>56.75</v>
+      </c>
+      <c r="I24">
+        <v>56.807000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>59.044199999999996</v>
+      </c>
+      <c r="C25">
+        <v>67.313000000000002</v>
+      </c>
+      <c r="D25">
+        <v>56.547899999999998</v>
+      </c>
+      <c r="E25">
+        <v>47.883000000000003</v>
+      </c>
+      <c r="F25">
+        <v>57.949199999999998</v>
+      </c>
+      <c r="G25">
+        <v>57.055999999999997</v>
+      </c>
+      <c r="H25">
+        <v>57.949199999999998</v>
+      </c>
+      <c r="I25">
+        <v>57.055999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>59.787599999999998</v>
+      </c>
+      <c r="C26">
+        <v>68.090999999999994</v>
+      </c>
+      <c r="D26">
+        <v>57.3628</v>
+      </c>
+      <c r="E26">
+        <v>49.972000000000001</v>
+      </c>
+      <c r="F26">
+        <v>58.757300000000001</v>
+      </c>
+      <c r="G26">
+        <v>61.555</v>
+      </c>
+      <c r="H26">
+        <v>58.757300000000001</v>
+      </c>
+      <c r="I26">
+        <v>61.555</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>58.000799999999998</v>
+      </c>
+      <c r="E27">
+        <v>52.334000000000003</v>
+      </c>
+      <c r="F27">
+        <v>59.568399999999997</v>
+      </c>
+      <c r="G27">
+        <v>61.808999999999997</v>
+      </c>
+      <c r="H27">
+        <v>59.568399999999997</v>
+      </c>
+      <c r="I27">
+        <v>61.808999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>58.7089</v>
+      </c>
+      <c r="E28">
+        <v>52.570999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>59.169899999999998</v>
+      </c>
+      <c r="E29">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>59.630600000000001</v>
+      </c>
+      <c r="E30">
+        <v>56.512999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>60.020699999999998</v>
+      </c>
+      <c r="E31">
+        <v>58.354999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40.918399999999998</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H37">
+        <v>40</v>
+      </c>
+      <c r="I37">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>43.604199999999999</v>
+      </c>
+      <c r="C38">
+        <v>2.4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41.73</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="F38">
+        <v>41.667299999999997</v>
+      </c>
+      <c r="G38">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H38">
+        <v>41.667299999999997</v>
+      </c>
+      <c r="I38">
+        <v>1.7949999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>44.734999999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42.647199999999998</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4.1740000000000004</v>
+      </c>
+      <c r="F39">
+        <v>42.4833</v>
+      </c>
+      <c r="G39">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="H39">
+        <v>42.4833</v>
+      </c>
+      <c r="I39">
+        <v>2.8260000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>45.971699999999998</v>
+      </c>
+      <c r="C40">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43.494399999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="F40">
+        <v>43.192599999999999</v>
+      </c>
+      <c r="G40">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="H40">
+        <v>43.192599999999999</v>
+      </c>
+      <c r="I40">
+        <v>3.0640000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>47.385199999999998</v>
+      </c>
+      <c r="C41">
+        <v>5.867</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44.341900000000003</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="F41">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="G41">
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="H41">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="I41">
+        <v>5.1440000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>48.727899999999998</v>
+      </c>
+      <c r="C42">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45.364899999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8.6110000000000007</v>
+      </c>
+      <c r="F42">
+        <v>45.392400000000002</v>
+      </c>
+      <c r="G42">
+        <v>6.7</v>
+      </c>
+      <c r="H42">
+        <v>45.392400000000002</v>
+      </c>
+      <c r="I42">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>49.858699999999999</v>
+      </c>
+      <c r="C43">
+        <v>7.2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>46.424100000000003</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9.9090000000000007</v>
+      </c>
+      <c r="F43">
+        <v>46.385399999999997</v>
+      </c>
+      <c r="G43">
+        <v>6.9260000000000002</v>
+      </c>
+      <c r="H43">
+        <v>46.385399999999997</v>
+      </c>
+      <c r="I43">
+        <v>6.9260000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>51.095399999999998</v>
+      </c>
+      <c r="C44">
+        <v>9.3330000000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>47.165999999999997</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10.154999999999999</v>
+      </c>
+      <c r="F44">
+        <v>47.591200000000001</v>
+      </c>
+      <c r="G44">
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="H44">
+        <v>47.591200000000001</v>
+      </c>
+      <c r="I44">
+        <v>7.1440000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>52.296799999999998</v>
+      </c>
+      <c r="C45">
+        <v>10.933</v>
+      </c>
+      <c r="D45" s="1">
+        <v>48.0473</v>
+      </c>
+      <c r="E45" s="1">
+        <v>13.048999999999999</v>
+      </c>
+      <c r="F45">
+        <v>48.158900000000003</v>
+      </c>
+      <c r="G45">
+        <v>8.1850000000000005</v>
+      </c>
+      <c r="H45">
+        <v>48.158900000000003</v>
+      </c>
+      <c r="I45">
+        <v>8.1850000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>53.427599999999998</v>
+      </c>
+      <c r="C46">
+        <v>10.933</v>
+      </c>
+      <c r="D46" s="1">
+        <v>48.647100000000002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>14.359</v>
+      </c>
+      <c r="F46">
+        <v>49.5777</v>
+      </c>
+      <c r="G46">
+        <v>9.1920000000000002</v>
+      </c>
+      <c r="H46">
+        <v>49.5777</v>
+      </c>
+      <c r="I46">
+        <v>9.1920000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>54.593600000000002</v>
+      </c>
+      <c r="C47">
+        <v>11.467000000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>49.493699999999997</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16.459</v>
+      </c>
+      <c r="F47">
+        <v>50.9253</v>
+      </c>
+      <c r="G47">
+        <v>9.4049999999999994</v>
+      </c>
+      <c r="H47">
+        <v>50.9253</v>
+      </c>
+      <c r="I47">
+        <v>9.4049999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>55.759700000000002</v>
+      </c>
+      <c r="C48">
+        <v>12.266999999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>50.587600000000002</v>
+      </c>
+      <c r="E48" s="1">
+        <v>18.552</v>
+      </c>
+      <c r="F48">
+        <v>52.343699999999998</v>
+      </c>
+      <c r="G48">
+        <v>9.3480000000000008</v>
+      </c>
+      <c r="H48">
+        <v>52.343699999999998</v>
+      </c>
+      <c r="I48">
+        <v>9.3480000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>56.572400000000002</v>
+      </c>
+      <c r="C49">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>51.646599999999999</v>
+      </c>
+      <c r="E49" s="1">
+        <v>20.114999999999998</v>
+      </c>
+      <c r="F49">
+        <v>53.443100000000001</v>
+      </c>
+      <c r="G49">
+        <v>9.57</v>
+      </c>
+      <c r="H49">
+        <v>53.443100000000001</v>
+      </c>
+      <c r="I49">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>57.597200000000001</v>
+      </c>
+      <c r="C50">
+        <v>14.132999999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <v>52.600299999999997</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20.620999999999999</v>
+      </c>
+      <c r="F50">
+        <v>54.578499999999998</v>
+      </c>
+      <c r="G50">
+        <v>11.385999999999999</v>
+      </c>
+      <c r="H50">
+        <v>54.578499999999998</v>
+      </c>
+      <c r="I50">
+        <v>11.385999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>58.303899999999999</v>
+      </c>
+      <c r="C51">
+        <v>15.467000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>53.5884</v>
+      </c>
+      <c r="E51" s="1">
+        <v>22.451000000000001</v>
+      </c>
+      <c r="F51">
+        <v>55.714199999999998</v>
+      </c>
+      <c r="G51">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="H51">
+        <v>55.714199999999998</v>
+      </c>
+      <c r="I51">
+        <v>14.000999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>59.258000000000003</v>
+      </c>
+      <c r="C52">
+        <v>17.067</v>
+      </c>
+      <c r="D52" s="1">
+        <v>54.718000000000004</v>
+      </c>
+      <c r="E52" s="1">
+        <v>24.013000000000002</v>
+      </c>
+      <c r="F52">
+        <v>56.849299999999999</v>
+      </c>
+      <c r="G52">
+        <v>15.019</v>
+      </c>
+      <c r="H52">
+        <v>56.849299999999999</v>
+      </c>
+      <c r="I52">
+        <v>15.019</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>59.858699999999999</v>
+      </c>
+      <c r="C53">
+        <v>17.067</v>
+      </c>
+      <c r="D53" s="1">
+        <v>55.3887</v>
+      </c>
+      <c r="E53" s="1">
+        <v>25.056000000000001</v>
+      </c>
+      <c r="F53">
+        <v>57.665100000000002</v>
+      </c>
+      <c r="G53">
+        <v>15.519</v>
+      </c>
+      <c r="H53">
+        <v>57.665100000000002</v>
+      </c>
+      <c r="I53">
+        <v>15.519</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="1">
+        <v>56.024299999999997</v>
+      </c>
+      <c r="E54" s="1">
+        <v>25.57</v>
+      </c>
+      <c r="F54">
+        <v>58.338799999999999</v>
+      </c>
+      <c r="G54">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="H54">
+        <v>58.338799999999999</v>
+      </c>
+      <c r="I54">
+        <v>15.492000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D55" s="1">
+        <v>56.906799999999997</v>
+      </c>
+      <c r="E55" s="1">
+        <v>26.872</v>
+      </c>
+      <c r="F55">
+        <v>59.119</v>
+      </c>
+      <c r="G55">
+        <v>15.461</v>
+      </c>
+      <c r="H55">
+        <v>59.119</v>
+      </c>
+      <c r="I55">
+        <v>15.461</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D56" s="1">
+        <v>57.611699999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>29.506</v>
+      </c>
+      <c r="F56">
+        <v>59.828200000000002</v>
+      </c>
+      <c r="G56">
+        <v>15.432</v>
+      </c>
+      <c r="H56">
+        <v>59.828200000000002</v>
+      </c>
+      <c r="I56">
+        <v>15.432</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D57" s="1">
+        <v>58.140999999999998</v>
+      </c>
+      <c r="E57" s="1">
+        <v>30.553000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D58" s="1">
+        <v>58.706299999999999</v>
+      </c>
+      <c r="E58" s="1">
+        <v>30.538</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D59" s="1">
+        <v>59.306899999999999</v>
+      </c>
+      <c r="E59" s="1">
+        <v>30.788</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D60" s="1">
+        <v>59.906999999999996</v>
+      </c>
+      <c r="E60" s="1">
+        <v>31.567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16665859-0656-8D42-81D1-ADB59CB0B49A}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>20.393999999999998</v>
+      </c>
+      <c r="C4">
+        <v>3.677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>21.7</v>
+      </c>
+      <c r="C5">
+        <v>3.4209999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>22.603000000000002</v>
+      </c>
+      <c r="C6">
+        <v>3.6880000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>23.405999999999999</v>
+      </c>
+      <c r="C7">
+        <v>3.9550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>23.5</v>
+      </c>
+      <c r="C8">
+        <v>7.1050000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>24.302</v>
+      </c>
+      <c r="C9">
+        <v>7.6340000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>25.202000000000002</v>
+      </c>
+      <c r="C10">
+        <v>9.2140000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>25.599</v>
+      </c>
+      <c r="C11">
+        <v>11.577999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>26.503</v>
+      </c>
+      <c r="C12">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>27.808</v>
+      </c>
+      <c r="C13">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>28.712</v>
+      </c>
+      <c r="C14">
+        <v>11.332000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>29.411000000000001</v>
+      </c>
+      <c r="C15">
+        <v>13.435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>30.914999999999999</v>
+      </c>
+      <c r="C16">
+        <v>14.493</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>32.015000000000001</v>
+      </c>
+      <c r="C17">
+        <v>16.335999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>33.42</v>
+      </c>
+      <c r="C18">
+        <v>16.867999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>34.22</v>
+      </c>
+      <c r="C19">
+        <v>18.446999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>35.32</v>
+      </c>
+      <c r="C20">
+        <v>20.553000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>36.621000000000002</v>
+      </c>
+      <c r="C21">
+        <v>22.658999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>37.82</v>
+      </c>
+      <c r="C22">
+        <v>25.815000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="C23">
+        <v>28.446999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>40.518000000000001</v>
+      </c>
+      <c r="C24">
+        <v>32.128999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>42.222999999999999</v>
+      </c>
+      <c r="C25">
+        <v>32.924999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>43.12</v>
+      </c>
+      <c r="C26">
+        <v>36.079000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>44.618000000000002</v>
+      </c>
+      <c r="C27">
+        <v>40.024000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>45.917000000000002</v>
+      </c>
+      <c r="C28">
+        <v>43.442999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>47.118000000000002</v>
+      </c>
+      <c r="C29">
+        <v>45.286999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>48.417999999999999</v>
+      </c>
+      <c r="C30">
+        <v>47.917999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>50.121000000000002</v>
+      </c>
+      <c r="C31">
+        <v>49.764000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>50.817</v>
+      </c>
+      <c r="C32">
+        <v>53.18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>52.62</v>
+      </c>
+      <c r="C33">
+        <v>55.289000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>53.015000000000001</v>
+      </c>
+      <c r="C34">
+        <v>58.441000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>54.518999999999998</v>
+      </c>
+      <c r="C35">
+        <v>59.499000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>56.122</v>
+      </c>
+      <c r="C36">
+        <v>61.344000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>57.222999999999999</v>
+      </c>
+      <c r="C37">
+        <v>62.924999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>58.121000000000002</v>
+      </c>
+      <c r="C38">
+        <v>65.816999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>59.121000000000002</v>
+      </c>
+      <c r="C39">
+        <v>67.659000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>61.33</v>
+      </c>
+      <c r="C40">
+        <v>67.671000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>63.738999999999997</v>
+      </c>
+      <c r="C41">
+        <v>68.209000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>66.248999999999995</v>
+      </c>
+      <c r="C42">
+        <v>67.959000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>67.352999999999994</v>
+      </c>
+      <c r="C43">
+        <v>68.227999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>68.251000000000005</v>
+      </c>
+      <c r="C44">
+        <v>70.856999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>68.75</v>
+      </c>
+      <c r="C45">
+        <v>72.697000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>69.442999999999998</v>
+      </c>
+      <c r="C46">
+        <v>77.162000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>69.744</v>
+      </c>
+      <c r="C47">
+        <v>77.688999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE18967-97FE-B54B-BA2C-CD8FFD2EB3CB}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,4 +2495,3371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8358B259-E661-6446-8D64-DBC17EEF5FB9}">
+  <dimension ref="A1:G146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>24.755582867976202</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.0654918901700203E-3</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39.158270930678398</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.2654940463770999E-3</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41.3896551268191</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.7642899678118097E-2</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42.337442999138801</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.3084403456780402E-2</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44.925581698943098</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.6740333148485301E-2</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>46.860919263043101</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.127089181176747</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>47.893593215493901</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14159121376428299</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>49.115935978958198</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.16508828988409999</v>
+      </c>
+      <c r="F11">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>51.0372955162645</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.20620451297760301</v>
+      </c>
+      <c r="F12">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>51.640680339527499</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.234985927125093</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>52.546555119494201</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.25037849134541001</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>54.373888290380201</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.27392014115727198</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>57.3451214692627</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.29876798133992999</v>
+      </c>
+      <c r="F16">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F17">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60.335695116148798</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.31754488466602399</v>
+      </c>
+      <c r="F18">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60.9294044584028</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.35076446146780899</v>
+      </c>
+      <c r="F19">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>63.380543804008703</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.38172781219907598</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>64.043566109455497</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.42474396173692802</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>66.483413895879593</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.45938844713319998</v>
+      </c>
+      <c r="F22">
+        <v>110</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>67.188873994384807</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.53626241076088599</v>
+      </c>
+      <c r="F23">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>70.238560422749202</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.56342583612590802</v>
+      </c>
+      <c r="F24">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24.558400342860399</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.22845483031601699</v>
+      </c>
+      <c r="F26">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>24.6078271493157</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.9000170412835E-3</v>
+      </c>
+      <c r="F27">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>30.159685313900098</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.23932015697549699</v>
+      </c>
+      <c r="F28">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>30.323024643513001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.25438620984188898</v>
+      </c>
+      <c r="F29">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>30.526650493292099</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.289921371826038</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>36.487386929621401</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.31598632747294902</v>
+      </c>
+      <c r="F31">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>40.546639491367699</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.34188806368167202</v>
+      </c>
+      <c r="F32">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42.427702014493903</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.39254863764405901</v>
+      </c>
+      <c r="F33">
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44.853582268138403</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.40516552920704701</v>
+      </c>
+      <c r="F34">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>46.070552096378698</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.425990792995878</v>
+      </c>
+      <c r="F35">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>46.661039776301202</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.44975509383532197</v>
+      </c>
+      <c r="F36">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>49.1519304473535</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.48578005908913302</v>
+      </c>
+      <c r="F37">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50.838496912975799</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.52097370686691202</v>
+      </c>
+      <c r="F38">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>51.332806953585603</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.56614222214893895</v>
+      </c>
+      <c r="F39">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>52.954363001800097</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.57150070470825898</v>
+      </c>
+      <c r="F40">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>53.984885681358499</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.58998073999757705</v>
+      </c>
+      <c r="F41">
+        <v>110</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>57.129133670862799</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.62737125473402899</v>
+      </c>
+      <c r="F42">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>60</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F43">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
+        <v>60.601120215018099</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.65552914453572197</v>
+      </c>
+      <c r="F44">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
+        <v>63.472954092256202</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.73033988980332398</v>
+      </c>
+      <c r="F45">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>63.775454542974103</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.77472166130136499</v>
+      </c>
+      <c r="F46">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3">
+        <v>66.543586572782999</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.80344364385946199</v>
+      </c>
+      <c r="F47">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3">
+        <v>67.1115121223702</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.878803623986118</v>
+      </c>
+      <c r="F48">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>69.947341037198896</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.90518034180592799</v>
+      </c>
+      <c r="F49">
+        <v>110</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>24.797495960329201</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9.2459553677823297E-2</v>
+      </c>
+      <c r="F51">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>30.019988998075601</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.12113703502142301</v>
+      </c>
+      <c r="F52">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>30.855480425410502</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.141813864791865</v>
+      </c>
+      <c r="F53">
+        <v>110</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3">
+        <v>36.664158597294502</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.16173373905056701</v>
+      </c>
+      <c r="F54">
+        <v>110</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>38.517821249580997</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.18284108545637401</v>
+      </c>
+      <c r="F55">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3">
+        <v>40.796480979284603</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.19585863290493299</v>
+      </c>
+      <c r="F56">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>41.4487574142833</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.222087025422677</v>
+      </c>
+      <c r="F57">
+        <v>110</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>42.298216374397803</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.24904258517991701</v>
+      </c>
+      <c r="F58">
+        <v>110</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44.922360036611501</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.25627135086643699</v>
+      </c>
+      <c r="F59">
+        <v>110</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3">
+        <v>46.136643397239702</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.27479588737025201</v>
+      </c>
+      <c r="F60">
+        <v>110</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3">
+        <v>46.7249798042698</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.29873833802278099</v>
+      </c>
+      <c r="F61">
+        <v>110</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3">
+        <v>47.6416004546846</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.32532288521159902</v>
+      </c>
+      <c r="F62">
+        <v>110</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3">
+        <v>49.034271561158803</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.33664837182359197</v>
+      </c>
+      <c r="F63">
+        <v>110</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50.8401129911487</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.375790451463552</v>
+      </c>
+      <c r="F64">
+        <v>110</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>51.503135296595403</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.419073753243483</v>
+      </c>
+      <c r="F65">
+        <v>110</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <v>52.738910398119799</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.430889115602685</v>
+      </c>
+      <c r="F66">
+        <v>110</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>54.363677614651799</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.444203676043117</v>
+      </c>
+      <c r="F67">
+        <v>110</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3">
+        <v>57.380045548218803</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.47984269835360899</v>
+      </c>
+      <c r="F68">
+        <v>110</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3">
+        <v>60</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F69">
+        <v>110</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3">
+        <v>60.506023459158598</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.50900998296686994</v>
+      </c>
+      <c r="F70">
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3">
+        <v>61.309277275149398</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.55368862250168704</v>
+      </c>
+      <c r="F71">
+        <v>110</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3">
+        <v>63.788886881034102</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.58928307112013401</v>
+      </c>
+      <c r="F72">
+        <v>110</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3">
+        <v>64.029588082661704</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.62940475729941703</v>
+      </c>
+      <c r="F73">
+        <v>110</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3">
+        <v>66.687050239672701</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.67570138561670301</v>
+      </c>
+      <c r="F74">
+        <v>110</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3">
+        <v>67.316754050322103</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.75454949269793203</v>
+      </c>
+      <c r="F75">
+        <v>110</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3">
+        <v>70.364278711780003</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.80543271768790103</v>
+      </c>
+      <c r="F76">
+        <v>110</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>20</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>110</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="4">
+        <v>33.994603772431297</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>110</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4">
+        <v>36.1523305736861</v>
+      </c>
+      <c r="E79" s="4">
+        <v>4.86645475075866E-2</v>
+      </c>
+      <c r="F79">
+        <v>110</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4">
+        <v>37.314850390862098</v>
+      </c>
+      <c r="E80" s="4">
+        <v>8.3970012232703603E-2</v>
+      </c>
+      <c r="F80">
+        <v>110</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4">
+        <v>39.995550358817297</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.148814515749605</v>
+      </c>
+      <c r="F81">
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4">
+        <v>42.550495587515996</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.17945273353878</v>
+      </c>
+      <c r="F82">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44.257571373456699</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.21424639488108399</v>
+      </c>
+      <c r="F83">
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45.4573327240605</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.26090379390246698</v>
+      </c>
+      <c r="F84">
+        <v>110</v>
+      </c>
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="4">
+        <v>46.988462556078296</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.28330654978945602</v>
+      </c>
+      <c r="F85">
+        <v>110</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4">
+        <v>48.345812620167898</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.32192425427556498</v>
+      </c>
+      <c r="F86">
+        <v>110</v>
+      </c>
+      <c r="G86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="4">
+        <v>50.7653000721007</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.35781694758756899</v>
+      </c>
+      <c r="F87">
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4">
+        <v>52.649402269699102</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.38217693606059799</v>
+      </c>
+      <c r="F88">
+        <v>110</v>
+      </c>
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="4">
+        <v>54.411528694849203</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.426591060128443</v>
+      </c>
+      <c r="F89">
+        <v>110</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>56.184986749898798</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.45956290138558897</v>
+      </c>
+      <c r="F90">
+        <v>110</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4">
+        <v>57.960605720417597</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.50947233232962397</v>
+      </c>
+      <c r="F91">
+        <v>110</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>60</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <v>110</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="4">
+        <v>65.719356901015303</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.50835823002187697</v>
+      </c>
+      <c r="F93">
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="4">
+        <v>68.360122096994502</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.53572934555035401</v>
+      </c>
+      <c r="F94">
+        <v>110</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="4">
+        <v>68.374689829572205</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.74030536180573503</v>
+      </c>
+      <c r="F95">
+        <v>110</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="4">
+        <v>69.396349581309394</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.57220919393540104</v>
+      </c>
+      <c r="F96">
+        <v>110</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4">
+        <v>20</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>110</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3">
+        <v>23.516157323079</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.13292714483991599</v>
+      </c>
+      <c r="F98">
+        <v>110</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3">
+        <v>25.249274775686398</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.185998259192171</v>
+      </c>
+      <c r="F99">
+        <v>110</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3">
+        <v>29.0696889968292</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.222790467900915</v>
+      </c>
+      <c r="F100">
+        <v>110</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="3">
+        <v>31.307427646225399</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.25749370721494202</v>
+      </c>
+      <c r="F101">
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="3">
+        <v>34.266615595274203</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.28737157131430902</v>
+      </c>
+      <c r="F102">
+        <v>110</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="3">
+        <v>35.552723965711998</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.3233395428027</v>
+      </c>
+      <c r="F103">
+        <v>110</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="3">
+        <v>37.1734474612932</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.36814505457667701</v>
+      </c>
+      <c r="F104">
+        <v>110</v>
+      </c>
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3">
+        <v>38.5642600920023</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.40730477663553599</v>
+      </c>
+      <c r="F105">
+        <v>110</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3">
+        <v>40.524995730874302</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.43941849079018502</v>
+      </c>
+      <c r="F106">
+        <v>110</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="3">
+        <v>42.578023542383399</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.48758145333929198</v>
+      </c>
+      <c r="F107">
+        <v>110</v>
+      </c>
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="3">
+        <v>44.4545625358395</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.52226962231527396</v>
+      </c>
+      <c r="F108">
+        <v>110</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45.4557094021959</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.55328423098637902</v>
+      </c>
+      <c r="F109">
+        <v>110</v>
+      </c>
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="3">
+        <v>48.466858950392002</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.61597381057688105</v>
+      </c>
+      <c r="F110">
+        <v>110</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3">
+        <v>50.801455877268403</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.66788775612223295</v>
+      </c>
+      <c r="F111">
+        <v>110</v>
+      </c>
+      <c r="G111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="3">
+        <v>52.759493007066702</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.71127805288291801</v>
+      </c>
+      <c r="F112">
+        <v>110</v>
+      </c>
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3">
+        <v>56.129393246559403</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.74417461596367795</v>
+      </c>
+      <c r="F113">
+        <v>110</v>
+      </c>
+      <c r="G113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="3">
+        <v>57.821050119853702</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.80129786152345195</v>
+      </c>
+      <c r="F114">
+        <v>110</v>
+      </c>
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="3">
+        <v>60</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F115">
+        <v>110</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="3">
+        <v>68.261890042079798</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.84778752734715002</v>
+      </c>
+      <c r="F116">
+        <v>110</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="3">
+        <v>69.456254374536201</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.90609801012726698</v>
+      </c>
+      <c r="F117">
+        <v>110</v>
+      </c>
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="3">
+        <v>20</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>110</v>
+      </c>
+      <c r="G118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3">
+        <v>23.420227170191499</v>
+      </c>
+      <c r="E119" s="3">
+        <v>4.6406202216001301E-2</v>
+      </c>
+      <c r="F119">
+        <v>110</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="3">
+        <v>25.687512385735001</v>
+      </c>
+      <c r="E120" s="3">
+        <v>8.3307505469429999E-2</v>
+      </c>
+      <c r="F120">
+        <v>110</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="3">
+        <v>29.261418857096999</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.107366381236914</v>
+      </c>
+      <c r="F121">
+        <v>110</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="3">
+        <v>31.3964771280273</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.13454180291232401</v>
+      </c>
+      <c r="F122">
+        <v>110</v>
+      </c>
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="3">
+        <v>34.194293443887801</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.15906749159001601</v>
+      </c>
+      <c r="F123">
+        <v>110</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="3">
+        <v>35.760509164389802</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.19780561175280501</v>
+      </c>
+      <c r="F124">
+        <v>110</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="3">
+        <v>37.440062265988601</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.23848596767743299</v>
+      </c>
+      <c r="F125">
+        <v>110</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3">
+        <v>38.609591882125699</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.26797994248276802</v>
+      </c>
+      <c r="F126">
+        <v>110</v>
+      </c>
+      <c r="G126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3">
+        <v>40.236792853589002</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.30486624891199499</v>
+      </c>
+      <c r="F127">
+        <v>110</v>
+      </c>
+      <c r="G127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="3">
+        <v>42.755582277119998</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.345817576866075</v>
+      </c>
+      <c r="F128">
+        <v>110</v>
+      </c>
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="3">
+        <v>44.415165357468098</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.38469125655743402</v>
+      </c>
+      <c r="F129">
+        <v>110</v>
+      </c>
+      <c r="G129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45.556097102054203</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.42564258451151499</v>
+      </c>
+      <c r="F130">
+        <v>110</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="3">
+        <v>46.9609398717364</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.45235126679056198</v>
+      </c>
+      <c r="F131">
+        <v>110</v>
+      </c>
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="3">
+        <v>48.445657455896203</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.48259802335975899</v>
+      </c>
+      <c r="F132">
+        <v>110</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="3">
+        <v>50.744787186719897</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.534013017831518</v>
+      </c>
+      <c r="F133">
+        <v>110</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="3">
+        <v>53.099505150357501</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.58673788197793397</v>
+      </c>
+      <c r="F134">
+        <v>110</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="3">
+        <v>54.550765438423397</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.60423248606177504</v>
+      </c>
+      <c r="F135">
+        <v>110</v>
+      </c>
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="3">
+        <v>56.373882385060298</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.62499419240631304</v>
+      </c>
+      <c r="F136">
+        <v>110</v>
+      </c>
+      <c r="G136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="3">
+        <v>58.062063336959397</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.68383165917805599</v>
+      </c>
+      <c r="F137">
+        <v>110</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="3">
+        <v>60</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="F138">
+        <v>110</v>
+      </c>
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="3">
+        <v>68.374689829572205</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.74030536180573503</v>
+      </c>
+      <c r="F139">
+        <v>110</v>
+      </c>
+      <c r="G139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="3">
+        <v>69.5809233855326</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.78754991590016199</v>
+      </c>
+      <c r="F140">
+        <v>110</v>
+      </c>
+      <c r="G140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>48</v>
+      </c>
+      <c r="D145">
+        <v>29</v>
+      </c>
+      <c r="E145">
+        <v>62</v>
+      </c>
+      <c r="F145">
+        <v>110</v>
+      </c>
+      <c r="G145" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146">
+        <v>68</v>
+      </c>
+      <c r="D146">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <v>80</v>
+      </c>
+      <c r="F146">
+        <v>110</v>
+      </c>
+      <c r="G146" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E140">
+    <sortCondition ref="B3:B140"/>
+    <sortCondition ref="C3:C140"/>
+    <sortCondition ref="D3:D140"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB9D7AE-BC21-F740-93C2-60578D28DED1}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>649</v>
+      </c>
+      <c r="E3">
+        <v>8880</v>
+      </c>
+      <c r="F3">
+        <v>13.7</v>
+      </c>
+      <c r="G3">
+        <v>519</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="0">G3/D3</f>
+        <v>0.79969183359013862</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3-I3</f>
+        <v>0.66969183359013862</v>
+      </c>
+      <c r="K3" s="2">
+        <f>H3+I3</f>
+        <v>0.92969183359013863</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <f>L3/D3</f>
+        <v>7.7041602465331274E-2</v>
+      </c>
+      <c r="N3">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>719</v>
+      </c>
+      <c r="E4">
+        <v>10126</v>
+      </c>
+      <c r="F4">
+        <v>14.1</v>
+      </c>
+      <c r="G4">
+        <v>544</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75660639777468708</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J10" si="1">H4-I4</f>
+        <v>0.60660639777468706</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K10" si="2">H4+I4</f>
+        <v>0.9066063977746871</v>
+      </c>
+      <c r="L4">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M10" si="3">L4/D4</f>
+        <v>7.2322670375521564E-2</v>
+      </c>
+      <c r="N4">
+        <v>107</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>574</v>
+      </c>
+      <c r="E5">
+        <v>6206</v>
+      </c>
+      <c r="F5">
+        <v>10.8</v>
+      </c>
+      <c r="G5">
+        <v>554</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96515679442508706</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80515679442508703</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1251567944250871</v>
+      </c>
+      <c r="L5">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11498257839721254</v>
+      </c>
+      <c r="N5">
+        <v>107</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>661</v>
+      </c>
+      <c r="E6">
+        <v>6689</v>
+      </c>
+      <c r="F6">
+        <v>10.1</v>
+      </c>
+      <c r="G6">
+        <v>519</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78517397881996975</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63517397881996973</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93517397881996978</v>
+      </c>
+      <c r="L6">
+        <v>59</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9258698940998485E-2</v>
+      </c>
+      <c r="N6">
+        <v>107</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>346</v>
+      </c>
+      <c r="E7">
+        <v>2680</v>
+      </c>
+      <c r="F7">
+        <v>7.7</v>
+      </c>
+      <c r="G7">
+        <v>311</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89884393063583812</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68884393063583815</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1088439306358382</v>
+      </c>
+      <c r="L7">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5375722543352595E-2</v>
+      </c>
+      <c r="N7">
+        <v>107</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>426</v>
+      </c>
+      <c r="E8">
+        <v>3123</v>
+      </c>
+      <c r="F8">
+        <v>7.3</v>
+      </c>
+      <c r="G8">
+        <v>243</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57042253521126762</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4204225352112676</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72042253521126765</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="N8">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>415</v>
+      </c>
+      <c r="F9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45882352941176469</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23882352941176468</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67882352941176471</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>616</v>
+      </c>
+      <c r="F10">
+        <v>5.4</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10/D10</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51333333333333331</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="N10">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D3:D10)</f>
+        <v>3574</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E3:E10)</f>
+        <v>38735</v>
+      </c>
+      <c r="F11" s="5">
+        <f>E11/D11</f>
+        <v>10.83799664241746</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G3:G10)</f>
+        <v>2767</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11/D11</f>
+        <v>0.77420257414661442</v>
+      </c>
+      <c r="L11">
+        <f>SUM(L3:L10)</f>
+        <v>276</v>
+      </c>
+      <c r="M11" s="2">
+        <f>L11/D11</f>
+        <v>7.7224398433128144E-2</v>
+      </c>
+      <c r="N11">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/polyps.xlsx
+++ b/data/polyps.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiewagner/repos/lynch-syndrome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F74C2-03FE-4E4B-AC0E-94669E343358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECD31E-4B20-5D42-A625-B581574844B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="760" windowWidth="27940" windowHeight="18880" activeTab="3" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="27940" windowHeight="18880" activeTab="2" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Myles_Adenoma_Risk_Gene" sheetId="3" r:id="rId1"/>
     <sheet name="Myles_Adenoma_Risk" sheetId="2" r:id="rId2"/>
     <sheet name="engel_2020_10yrisk" sheetId="1" r:id="rId3"/>
     <sheet name="mecklin_2007_km" sheetId="7" r:id="rId4"/>
-    <sheet name="moller_2024" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="moller_2024" sheetId="5" r:id="rId6"/>
+    <sheet name="click_2018" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="116">
   <si>
     <t>MSH6</t>
   </si>
@@ -126,9 +128,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>Cumulative risk of adenoma</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -169,6 +168,228 @@
   </si>
   <si>
     <t>Number of carriers by sex and gene, average age and number of adenomas with 95% CI, number of adenomas by grade, and total number of adenomas</t>
+  </si>
+  <si>
+    <t>Other info</t>
+  </si>
+  <si>
+    <t>mean age at init</t>
+  </si>
+  <si>
+    <t>sd age at init</t>
+  </si>
+  <si>
+    <t>n colos/patient median</t>
+  </si>
+  <si>
+    <t>n colos IQR lower</t>
+  </si>
+  <si>
+    <t>n colos IQR upper</t>
+  </si>
+  <si>
+    <t>cumulative colos</t>
+  </si>
+  <si>
+    <t>observation time per patient median</t>
+  </si>
+  <si>
+    <t>observation time per patient IQR lower</t>
+  </si>
+  <si>
+    <t>observation time per patient IQR upper</t>
+  </si>
+  <si>
+    <t>Cumulative observation time</t>
+  </si>
+  <si>
+    <t>n male</t>
+  </si>
+  <si>
+    <t>n female</t>
+  </si>
+  <si>
+    <t>crc before index colo</t>
+  </si>
+  <si>
+    <t>n incident crc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n crcs </t>
+  </si>
+  <si>
+    <t>avg colo time</t>
+  </si>
+  <si>
+    <t>crcs per person year</t>
+  </si>
+  <si>
+    <t>10y risk</t>
+  </si>
+  <si>
+    <t>Cumulative risk of adenoma by age 60</t>
+  </si>
+  <si>
+    <t>Number of colonoscopies</t>
+  </si>
+  <si>
+    <t>7+</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>n subject</t>
+  </si>
+  <si>
+    <t>n event</t>
+  </si>
+  <si>
+    <t>n total</t>
+  </si>
+  <si>
+    <t>prevelant at first colo</t>
+  </si>
+  <si>
+    <t>prevelant at later colo</t>
+  </si>
+  <si>
+    <t>n crcs</t>
+  </si>
+  <si>
+    <t>n patients</t>
+  </si>
+  <si>
+    <t>mean age</t>
+  </si>
+  <si>
+    <t>n1 adenoma</t>
+  </si>
+  <si>
+    <t>n2 adenomal</t>
+  </si>
+  <si>
+    <t>n male later</t>
+  </si>
+  <si>
+    <t>n female later</t>
+  </si>
+  <si>
+    <t>n male first</t>
+  </si>
+  <si>
+    <t>n female first</t>
+  </si>
+  <si>
+    <t>n first colo</t>
+  </si>
+  <si>
+    <t>n later colo</t>
+  </si>
+  <si>
+    <t>cumulative CRC risk from 20to 60</t>
+  </si>
+  <si>
+    <t>ncases</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>male to f</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>adenomas</t>
+  </si>
+  <si>
+    <t>low-grade</t>
+  </si>
+  <si>
+    <t>high-grade</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N male</t>
+  </si>
+  <si>
+    <t>N female</t>
+  </si>
+  <si>
+    <t>Median age</t>
+  </si>
+  <si>
+    <t>IQR 61-68</t>
+  </si>
+  <si>
+    <t>Initial colonoscopy findings</t>
+  </si>
+  <si>
+    <t>N adenoma</t>
+  </si>
+  <si>
+    <t>N adv adenoma</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>CRC incidence rates per 10000 PY</t>
+  </si>
+  <si>
+    <t>Initial finding</t>
+  </si>
+  <si>
+    <t>Adv adenoma</t>
+  </si>
+  <si>
+    <t>Adenoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC incidence per 10 py </t>
+  </si>
+  <si>
+    <t>CRC incidence per 10k py per index colo status</t>
+  </si>
+  <si>
+    <t>0-3y</t>
+  </si>
+  <si>
+    <t>0-5y</t>
+  </si>
+  <si>
+    <t>5-10y</t>
+  </si>
+  <si>
+    <t>0-10y</t>
+  </si>
+  <si>
+    <t>10-15y</t>
+  </si>
+  <si>
+    <t>0-15y</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -176,7 +397,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -230,9 +451,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE18967-97FE-B54B-BA2C-CD8FFD2EB3CB}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2698,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2490,6 +2713,374 @@
       </c>
       <c r="F17">
         <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>42.7</v>
+      </c>
+      <c r="E21">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1407</v>
+      </c>
+      <c r="D26">
+        <v>986</v>
+      </c>
+      <c r="E26">
+        <v>354</v>
+      </c>
+      <c r="F26">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>673</v>
+      </c>
+      <c r="D27">
+        <v>483</v>
+      </c>
+      <c r="E27">
+        <v>160</v>
+      </c>
+      <c r="F27">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>735</v>
+      </c>
+      <c r="D28">
+        <v>503</v>
+      </c>
+      <c r="E28">
+        <v>194</v>
+      </c>
+      <c r="F28">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>526</v>
+      </c>
+      <c r="D29">
+        <v>495</v>
+      </c>
+      <c r="E29">
+        <v>107</v>
+      </c>
+      <c r="F29">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>42.7</v>
+      </c>
+      <c r="D30">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>48.7</v>
+      </c>
+      <c r="F30">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>13.5</v>
+      </c>
+      <c r="D31">
+        <v>12.3</v>
+      </c>
+      <c r="E31">
+        <v>13.7</v>
+      </c>
+      <c r="F31">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>8229</v>
+      </c>
+      <c r="D35">
+        <v>6300</v>
+      </c>
+      <c r="E35">
+        <v>1789</v>
+      </c>
+      <c r="F35">
+        <v>16327</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>8.5</v>
+      </c>
+      <c r="D36">
+        <v>7.4</v>
+      </c>
+      <c r="E36">
+        <v>6.5</v>
+      </c>
+      <c r="F36">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>4.2</v>
+      </c>
+      <c r="D37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F37">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>13.2</v>
+      </c>
+      <c r="D38">
+        <v>11.3</v>
+      </c>
+      <c r="E38">
+        <v>9.4</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>12798</v>
+      </c>
+      <c r="D39">
+        <v>7961</v>
+      </c>
+      <c r="E39">
+        <v>2550</v>
+      </c>
+      <c r="F39">
+        <v>23309</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <f>C39/C35</f>
+        <v>1.5552314983594604</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:F40" si="0">D39/D35</f>
+        <v>1.2636507936507937</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.4253773057574064</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.4276352054878423</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>167</v>
+      </c>
+      <c r="D41">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>169</v>
+      </c>
+      <c r="D42">
+        <v>97</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <f>C41/C39</f>
+        <v>1.3048913892795749E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:F43" si="1">D41/D39</f>
+        <v>1.1681949503831177E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411761E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.1669312282809215E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <f>1-EXP(-10*C43)</f>
+        <v>0.12233397470909735</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:F44" si="2">1-EXP(-10*D43)</f>
+        <v>0.11025421780225553</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>4.5968723547084589E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.11014177155633498</v>
       </c>
     </row>
   </sheetData>
@@ -2499,17 +3090,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8358B259-E661-6446-8D64-DBC17EEF5FB9}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2517,2649 +3108,2649 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>24.755582867976202</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>7.0654918901700203E-3</v>
       </c>
       <c r="F4">
         <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>39.158270930678398</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>3.2654940463770999E-3</v>
       </c>
       <c r="F5">
         <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>41.3896551268191</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>3.7642899678118097E-2</v>
       </c>
       <c r="F6">
         <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>42.337442999138801</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>6.3084403456780402E-2</v>
       </c>
       <c r="F7">
         <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>44.925581698943098</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>7.6740333148485301E-2</v>
       </c>
       <c r="F8">
         <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>46.860919263043101</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>0.127089181176747</v>
       </c>
       <c r="F9">
         <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>47.893593215493901</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>0.14159121376428299</v>
       </c>
       <c r="F10">
         <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>49.115935978958198</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>0.16508828988409999</v>
       </c>
       <c r="F11">
         <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>51.0372955162645</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>0.20620451297760301</v>
       </c>
       <c r="F12">
         <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>51.640680339527499</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>0.234985927125093</v>
       </c>
       <c r="F13">
         <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>52.546555119494201</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>0.25037849134541001</v>
       </c>
       <c r="F14">
         <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>54.373888290380201</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>0.27392014115727198</v>
       </c>
       <c r="F15">
         <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>57.3451214692627</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>0.29876798133992999</v>
       </c>
       <c r="F16">
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>60</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0.28999999999999998</v>
       </c>
       <c r="F17">
         <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>60.335695116148798</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0.31754488466602399</v>
       </c>
       <c r="F18">
         <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>60.9294044584028</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>0.35076446146780899</v>
       </c>
       <c r="F19">
         <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>63.380543804008703</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>0.38172781219907598</v>
       </c>
       <c r="F20">
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>64.043566109455497</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>0.42474396173692802</v>
       </c>
       <c r="F21">
         <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>66.483413895879593</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>0.45938844713319998</v>
       </c>
       <c r="F22">
         <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>67.188873994384807</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>0.53626241076088599</v>
       </c>
       <c r="F23">
         <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>70.238560422749202</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>0.56342583612590802</v>
       </c>
       <c r="F24">
         <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>20</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
         <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>24.558400342860399</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>0.22845483031601699</v>
       </c>
       <c r="F26">
         <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>24.6078271493157</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>1.9000170412835E-3</v>
       </c>
       <c r="F27">
         <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>30.159685313900098</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>0.23932015697549699</v>
       </c>
       <c r="F28">
         <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>30.323024643513001</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>0.25438620984188898</v>
       </c>
       <c r="F29">
         <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>30.526650493292099</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>0.289921371826038</v>
       </c>
       <c r="F30">
         <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>36.487386929621401</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>0.31598632747294902</v>
       </c>
       <c r="F31">
         <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>40.546639491367699</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>0.34188806368167202</v>
       </c>
       <c r="F32">
         <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>42.427702014493903</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>0.39254863764405901</v>
       </c>
       <c r="F33">
         <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>44.853582268138403</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>0.40516552920704701</v>
       </c>
       <c r="F34">
         <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>46.070552096378698</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>0.425990792995878</v>
       </c>
       <c r="F35">
         <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>46.661039776301202</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>0.44975509383532197</v>
       </c>
       <c r="F36">
         <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>49.1519304473535</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>0.48578005908913302</v>
       </c>
       <c r="F37">
         <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>50.838496912975799</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>0.52097370686691202</v>
       </c>
       <c r="F38">
         <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>51.332806953585603</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>0.56614222214893895</v>
       </c>
       <c r="F39">
         <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>52.954363001800097</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>0.57150070470825898</v>
       </c>
       <c r="F40">
         <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>53.984885681358499</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>0.58998073999757705</v>
       </c>
       <c r="F41">
         <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>57.129133670862799</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>0.62737125473402899</v>
       </c>
       <c r="F42">
         <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>60</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>0.62</v>
       </c>
       <c r="F43">
         <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>60.601120215018099</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>0.65552914453572197</v>
       </c>
       <c r="F44">
         <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>63.472954092256202</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>0.73033988980332398</v>
       </c>
       <c r="F45">
         <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>63.775454542974103</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>0.77472166130136499</v>
       </c>
       <c r="F46">
         <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>66.543586572782999</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>0.80344364385946199</v>
       </c>
       <c r="F47">
         <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>67.1115121223702</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>0.878803623986118</v>
       </c>
       <c r="F48">
         <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>69.947341037198896</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>0.90518034180592799</v>
       </c>
       <c r="F49">
         <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>20</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
         <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>24.797495960329201</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>9.2459553677823297E-2</v>
       </c>
       <c r="F51">
         <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>30.019988998075601</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>0.12113703502142301</v>
       </c>
       <c r="F52">
         <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>30.855480425410502</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <v>0.141813864791865</v>
       </c>
       <c r="F53">
         <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>36.664158597294502</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>0.16173373905056701</v>
       </c>
       <c r="F54">
         <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>38.517821249580997</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>0.18284108545637401</v>
       </c>
       <c r="F55">
         <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>40.796480979284603</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>0.19585863290493299</v>
       </c>
       <c r="F56">
         <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>41.4487574142833</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>0.222087025422677</v>
       </c>
       <c r="F57">
         <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>42.298216374397803</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>0.24904258517991701</v>
       </c>
       <c r="F58">
         <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>44.922360036611501</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>0.25627135086643699</v>
       </c>
       <c r="F59">
         <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>46.136643397239702</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>0.27479588737025201</v>
       </c>
       <c r="F60">
         <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>46.7249798042698</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>0.29873833802278099</v>
       </c>
       <c r="F61">
         <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>47.6416004546846</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>0.32532288521159902</v>
       </c>
       <c r="F62">
         <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>49.034271561158803</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>0.33664837182359197</v>
       </c>
       <c r="F63">
         <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>50.8401129911487</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>0.375790451463552</v>
       </c>
       <c r="F64">
         <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>51.503135296595403</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>0.419073753243483</v>
       </c>
       <c r="F65">
         <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>52.738910398119799</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>0.430889115602685</v>
       </c>
       <c r="F66">
         <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>54.363677614651799</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <v>0.444203676043117</v>
       </c>
       <c r="F67">
         <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>57.380045548218803</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>0.47984269835360899</v>
       </c>
       <c r="F68">
         <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>60</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69">
         <v>0.48</v>
       </c>
       <c r="F69">
         <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>60.506023459158598</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <v>0.50900998296686994</v>
       </c>
       <c r="F70">
         <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>61.309277275149398</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71">
         <v>0.55368862250168704</v>
       </c>
       <c r="F71">
         <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>63.788886881034102</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
         <v>0.58928307112013401</v>
       </c>
       <c r="F72">
         <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>64.029588082661704</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
         <v>0.62940475729941703</v>
       </c>
       <c r="F73">
         <v>110</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>66.687050239672701</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <v>0.67570138561670301</v>
       </c>
       <c r="F74">
         <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>67.316754050322103</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <v>0.75454949269793203</v>
       </c>
       <c r="F75">
         <v>110</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>70.364278711780003</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>0.80543271768790103</v>
       </c>
       <c r="F76">
         <v>110</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>20</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
         <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>33.994603772431297</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>0</v>
       </c>
       <c r="F78">
         <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>36.1523305736861</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>4.86645475075866E-2</v>
       </c>
       <c r="F79">
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>37.314850390862098</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>8.3970012232703603E-2</v>
       </c>
       <c r="F80">
         <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>39.995550358817297</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>0.148814515749605</v>
       </c>
       <c r="F81">
         <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>42.550495587515996</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>0.17945273353878</v>
       </c>
       <c r="F82">
         <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>44.257571373456699</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>0.21424639488108399</v>
       </c>
       <c r="F83">
         <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>45.4573327240605</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>0.26090379390246698</v>
       </c>
       <c r="F84">
         <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>46.988462556078296</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>0.28330654978945602</v>
       </c>
       <c r="F85">
         <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>48.345812620167898</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>0.32192425427556498</v>
       </c>
       <c r="F86">
         <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>50.7653000721007</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>0.35781694758756899</v>
       </c>
       <c r="F87">
         <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>52.649402269699102</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>0.38217693606059799</v>
       </c>
       <c r="F88">
         <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>54.411528694849203</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>0.426591060128443</v>
       </c>
       <c r="F89">
         <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>56.184986749898798</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>0.45956290138558897</v>
       </c>
       <c r="F90">
         <v>110</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>57.960605720417597</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>0.50947233232962397</v>
       </c>
       <c r="F91">
         <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>60</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>0.5</v>
       </c>
       <c r="F92">
         <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>65.719356901015303</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>0.50835823002187697</v>
       </c>
       <c r="F93">
         <v>110</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>68.360122096994502</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>0.53572934555035401</v>
       </c>
       <c r="F94">
         <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>68.374689829572205</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>0.74030536180573503</v>
       </c>
       <c r="F95">
         <v>110</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>69.396349581309394</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>0.57220919393540104</v>
       </c>
       <c r="F96">
         <v>110</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>20</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>0</v>
       </c>
       <c r="F97">
         <v>110</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>23.516157323079</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>0.13292714483991599</v>
       </c>
       <c r="F98">
         <v>110</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>25.249274775686398</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>0.185998259192171</v>
       </c>
       <c r="F99">
         <v>110</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>29.0696889968292</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>0.222790467900915</v>
       </c>
       <c r="F100">
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>31.307427646225399</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>0.25749370721494202</v>
       </c>
       <c r="F101">
         <v>110</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>34.266615595274203</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>0.28737157131430902</v>
       </c>
       <c r="F102">
         <v>110</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>35.552723965711998</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>0.3233395428027</v>
       </c>
       <c r="F103">
         <v>110</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>37.1734474612932</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>0.36814505457667701</v>
       </c>
       <c r="F104">
         <v>110</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>38.5642600920023</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105">
         <v>0.40730477663553599</v>
       </c>
       <c r="F105">
         <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>40.524995730874302</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106">
         <v>0.43941849079018502</v>
       </c>
       <c r="F106">
         <v>110</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>42.578023542383399</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
         <v>0.48758145333929198</v>
       </c>
       <c r="F107">
         <v>110</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>44.4545625358395</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
         <v>0.52226962231527396</v>
       </c>
       <c r="F108">
         <v>110</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>45.4557094021959</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
         <v>0.55328423098637902</v>
       </c>
       <c r="F109">
         <v>110</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>48.466858950392002</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110">
         <v>0.61597381057688105</v>
       </c>
       <c r="F110">
         <v>110</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>50.801455877268403</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111">
         <v>0.66788775612223295</v>
       </c>
       <c r="F111">
         <v>110</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>52.759493007066702</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
         <v>0.71127805288291801</v>
       </c>
       <c r="F112">
         <v>110</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>56.129393246559403</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113">
         <v>0.74417461596367795</v>
       </c>
       <c r="F113">
         <v>110</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>57.821050119853702</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
         <v>0.80129786152345195</v>
       </c>
       <c r="F114">
         <v>110</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>60</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115">
         <v>0.8</v>
       </c>
       <c r="F115">
         <v>110</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>68.261890042079798</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116">
         <v>0.84778752734715002</v>
       </c>
       <c r="F116">
         <v>110</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>69.456254374536201</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117">
         <v>0.90609801012726698</v>
       </c>
       <c r="F117">
         <v>110</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>20</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
         <v>110</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>23.420227170191499</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119">
         <v>4.6406202216001301E-2</v>
       </c>
       <c r="F119">
         <v>110</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>25.687512385735001</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120">
         <v>8.3307505469429999E-2</v>
       </c>
       <c r="F120">
         <v>110</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121">
         <v>29.261418857096999</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121">
         <v>0.107366381236914</v>
       </c>
       <c r="F121">
         <v>110</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122">
         <v>31.3964771280273</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122">
         <v>0.13454180291232401</v>
       </c>
       <c r="F122">
         <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>34.194293443887801</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123">
         <v>0.15906749159001601</v>
       </c>
       <c r="F123">
         <v>110</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>35.760509164389802</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124">
         <v>0.19780561175280501</v>
       </c>
       <c r="F124">
         <v>110</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>37.440062265988601</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125">
         <v>0.23848596767743299</v>
       </c>
       <c r="F125">
         <v>110</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126">
         <v>38.609591882125699</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126">
         <v>0.26797994248276802</v>
       </c>
       <c r="F126">
         <v>110</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127">
         <v>40.236792853589002</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127">
         <v>0.30486624891199499</v>
       </c>
       <c r="F127">
         <v>110</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>42.755582277119998</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128">
         <v>0.345817576866075</v>
       </c>
       <c r="F128">
         <v>110</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>44.415165357468098</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129">
         <v>0.38469125655743402</v>
       </c>
       <c r="F129">
         <v>110</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>45.556097102054203</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130">
         <v>0.42564258451151499</v>
       </c>
       <c r="F130">
         <v>110</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>46.9609398717364</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131">
         <v>0.45235126679056198</v>
       </c>
       <c r="F131">
         <v>110</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132">
         <v>48.445657455896203</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132">
         <v>0.48259802335975899</v>
       </c>
       <c r="F132">
         <v>110</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133">
         <v>50.744787186719897</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133">
         <v>0.534013017831518</v>
       </c>
       <c r="F133">
         <v>110</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134">
         <v>53.099505150357501</v>
       </c>
       <c r="E134" s="2">
@@ -5169,135 +5760,135 @@
         <v>110</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135">
         <v>54.550765438423397</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135">
         <v>0.60423248606177504</v>
       </c>
       <c r="F135">
         <v>110</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136">
         <v>56.373882385060298</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136">
         <v>0.62499419240631304</v>
       </c>
       <c r="F136">
         <v>110</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137">
         <v>58.062063336959397</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137">
         <v>0.68383165917805599</v>
       </c>
       <c r="F137">
         <v>110</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138">
         <v>60</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138">
         <v>0.68</v>
       </c>
       <c r="F138">
         <v>110</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
         <v>68.374689829572205</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139">
         <v>0.74030536180573503</v>
       </c>
       <c r="F139">
         <v>110</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140">
         <v>69.5809233855326</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140">
         <v>0.78754991590016199</v>
       </c>
       <c r="F140">
         <v>110</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>19</v>
       </c>
@@ -5311,50 +5902,62 @@
         <v>4</v>
       </c>
       <c r="F144" t="s">
+        <v>66</v>
+      </c>
+      <c r="G144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" t="s">
         <v>27</v>
       </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="D145">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E145">
-        <v>62</v>
+        <v>62.2</v>
       </c>
       <c r="F145">
-        <v>110</v>
-      </c>
-      <c r="G145" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H145">
+        <v>110</v>
+      </c>
+      <c r="I145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C146">
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="E146">
         <v>80</v>
       </c>
       <c r="F146">
-        <v>110</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H146">
+        <v>110</v>
+      </c>
+      <c r="I146" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5369,11 +5972,532 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533CDBDE-E3A5-064D-A4D6-9F8A8567917B}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>420</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2/420</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>315</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C8" si="0">B3/420</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52857142857142858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30476190476190479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1904761904761907E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f>B18/420</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <f>B19/B11</f>
+        <v>0.28426395939086296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f>B20/B12</f>
+        <v>0.19730941704035873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <f>B19-B28</f>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f>B26/B11</f>
+        <v>0.12182741116751269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27">
+        <f>B20-B29</f>
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <f>B27/B12</f>
+        <v>6.726457399103139E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <f>B28/(B11-B26)</f>
+        <v>0.18497109826589594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <f>B29/(B12-B27)</f>
+        <v>0.13942307692307693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>1.4</v>
+      </c>
+      <c r="C30">
+        <v>0.84</v>
+      </c>
+      <c r="D30">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <f>B33/420</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <f>B34/B12</f>
+        <v>8.520179372197309E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <f>B35/B11</f>
+        <v>0.1065989847715736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>34.6</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>22.1</v>
+      </c>
+      <c r="C44">
+        <v>7.2</v>
+      </c>
+      <c r="D44">
+        <v>34.5</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <v>1.46</v>
+      </c>
+      <c r="C46">
+        <v>0.67</v>
+      </c>
+      <c r="D46">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <f>B50/41</f>
+        <v>0.70731707317073167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C53" si="1">B51/41</f>
+        <v>0.24390243902439024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.29268292682926828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.17073170731707318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <f>B56/116</f>
+        <v>0.88793103448275867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <f>B57/116</f>
+        <v>0.11206896551724138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB9D7AE-BC21-F740-93C2-60578D28DED1}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5385,7 +6509,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5399,10 +6523,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5429,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5477,7 +6601,7 @@
         <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -5525,7 +6649,7 @@
         <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -5573,7 +6697,7 @@
         <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5621,7 +6745,7 @@
         <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -5669,7 +6793,7 @@
         <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5717,7 +6841,7 @@
         <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5765,7 +6889,7 @@
         <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -5813,15 +6937,15 @@
         <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <f>SUM(D3:D10)</f>
@@ -5831,7 +6955,7 @@
         <f>SUM(E3:E10)</f>
         <v>38735</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>E11/D11</f>
         <v>10.83799664241746</v>
       </c>
@@ -5855,11 +6979,424 @@
         <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B88B80C-2A63-1744-B55A-7F2A4CD6DDF1}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1">
+        <v>15935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>9513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <f>B1-B2</f>
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>2882</v>
+      </c>
+      <c r="C7">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>5068</v>
+      </c>
+      <c r="C8">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>7985</v>
+      </c>
+      <c r="C9">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>15.3</v>
+      </c>
+      <c r="D13">
+        <v>24.7</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>9.1</v>
+      </c>
+      <c r="C14">
+        <v>6.7</v>
+      </c>
+      <c r="D14">
+        <v>11.5</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>7.5</v>
+      </c>
+      <c r="C15">
+        <v>5.8</v>
+      </c>
+      <c r="D15">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <f>B13/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <f>C13/1000</f>
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <f>D13/1000</f>
+        <v>2.47E-2</v>
+      </c>
+      <c r="F19">
+        <f>1-(1-B19)^(1/10)</f>
+        <v>2.0182313584303779E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20">
+        <f>B14/1000</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C20">
+        <f>C14/1000</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D20">
+        <f>D14/1000</f>
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21">
+        <f>B15/1000</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C21">
+        <f>C15/1000</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D21">
+        <f>D15/1000</f>
+        <v>9.6999999999999986E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>1.3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>3.4</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>19.2</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>5.6</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>23.1</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>11.8</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>7.5</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>21.1</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>7.9</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>6.5</v>
+      </c>
+      <c r="G30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>16.7</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>13.1</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>11.4</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>9.1</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>7.5</v>
+      </c>
+      <c r="G32">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/polyps.xlsx
+++ b/data/polyps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiewagner/repos/lynch-syndrome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECD31E-4B20-5D42-A625-B581574844B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D7A94-57CA-5B4C-A3A3-FB883FF85060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="27940" windowHeight="18880" activeTab="2" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="27940" windowHeight="18880" activeTab="6" xr2:uid="{E44D58A2-31EB-3B46-8961-2E9DD71372D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Myles_Adenoma_Risk_Gene" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="mecklin_2007_km" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
     <sheet name="moller_2024" sheetId="5" r:id="rId6"/>
-    <sheet name="click_2018" sheetId="9" r:id="rId7"/>
+    <sheet name="goverde_2020" sheetId="10" r:id="rId7"/>
+    <sheet name="katona_2025" sheetId="11" r:id="rId8"/>
+    <sheet name="click_2018" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="192">
   <si>
     <t>MSH6</t>
   </si>
@@ -390,16 +392,245 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>35-56</t>
+  </si>
+  <si>
+    <t>31-53</t>
+  </si>
+  <si>
+    <t>28-52</t>
+  </si>
+  <si>
+    <t>38-57</t>
+  </si>
+  <si>
+    <t>35-57</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>First colo findings</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Colo characteristics</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Follow-up within 30 months</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>Cecal intubation</t>
+  </si>
+  <si>
+    <t>Adequate bowel prep</t>
+  </si>
+  <si>
+    <t>Age at first colo</t>
+  </si>
+  <si>
+    <t>Obs years</t>
+  </si>
+  <si>
+    <t>Number of colos</t>
+  </si>
+  <si>
+    <t>Adv Adenoma</t>
+  </si>
+  <si>
+    <t>N Colos</t>
+  </si>
+  <si>
+    <t>1.2-2.2</t>
+  </si>
+  <si>
+    <t>1.0-2.1</t>
+  </si>
+  <si>
+    <t>1.1-2.3</t>
+  </si>
+  <si>
+    <t>1.6-2.1</t>
+  </si>
+  <si>
+    <t>1.0-2.0</t>
+  </si>
+  <si>
+    <t>Age at dx</t>
+  </si>
+  <si>
+    <t>Surveillance colos with adenoma</t>
+  </si>
+  <si>
+    <t>Time of adenoma dev</t>
+  </si>
+  <si>
+    <t>Advanced adenoma</t>
+  </si>
+  <si>
+    <t>47-66</t>
+  </si>
+  <si>
+    <t>41-60</t>
+  </si>
+  <si>
+    <t>46-67</t>
+  </si>
+  <si>
+    <t>53-68</t>
+  </si>
+  <si>
+    <t>38-59</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>0-24</t>
+  </si>
+  <si>
+    <t>27-79</t>
+  </si>
+  <si>
+    <t>27-78</t>
+  </si>
+  <si>
+    <t>29-74</t>
+  </si>
+  <si>
+    <t>31-79</t>
+  </si>
+  <si>
+    <t>34-76</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>Age at LS diagnosis</t>
+  </si>
+  <si>
+    <t>21-55</t>
+  </si>
+  <si>
+    <t>20-59</t>
+  </si>
+  <si>
+    <t>CRC before 50y</t>
+  </si>
+  <si>
+    <t>Age at CRC pre-50y</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>27-46</t>
+  </si>
+  <si>
+    <t>30-46</t>
+  </si>
+  <si>
+    <t>30-43</t>
+  </si>
+  <si>
+    <t>N colos</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>21-29</t>
+  </si>
+  <si>
+    <t>22-49</t>
+  </si>
+  <si>
+    <t>Lower endoscopic screening/surveillance findings</t>
+  </si>
+  <si>
+    <t>CRC on any screening</t>
+  </si>
+  <si>
+    <t>Neoplastic finding on any</t>
+  </si>
+  <si>
+    <t>CRC after LS dx</t>
+  </si>
+  <si>
+    <t>Neoplastic after LS dx</t>
+  </si>
+  <si>
+    <t>N Procedures</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Note: Wilson's SE used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +657,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,6 +702,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,6 +723,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>197323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A859E6-9D86-D0A7-20A1-0AA2442A216C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="8064500"/>
+          <a:ext cx="7772400" cy="3918423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>156191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47C965A-F984-E89C-EC90-FB3D3294C209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="12217400"/>
+          <a:ext cx="7772400" cy="5007591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2488,20 +2833,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE18967-97FE-B54B-BA2C-CD8FFD2EB3CB}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2534,8 +2879,20 @@
       <c r="F3">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">1-(1-C3/100)^(1/10)</f>
+        <v>3.8115404975058054E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="1">1-(1-D3/100)^(1/10)</f>
+        <v>3.394172309361343E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="2">1-(1-E3/100)^(1/10)</f>
+        <v>4.2458731182055454E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2551,8 +2908,20 @@
       <c r="F4">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>5.6670491542694768E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.9799783494323568E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>6.4023445425757997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2568,13 +2937,25 @@
       <c r="F5">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4.7295818852954197E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.6147430563230776E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>5.9584612764696399E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2607,8 +2988,20 @@
       <c r="F9">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.9805890987505457E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>6.1684369652234006E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>9.8230330110690156E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -2624,8 +3017,20 @@
       <c r="F10">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.9410628300618016E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.5658518925040887E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>2.3296578441422855E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -2641,13 +3046,25 @@
       <c r="F11">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>9.8230330110690156E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>5.5358911605732919E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.4284038165733093E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -2680,8 +3097,20 @@
       <c r="F15">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f>1-(1-C15/100)^(1/10)</f>
+        <v>1.1919423766276305E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>9.8230330110690156E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1.4056626377839443E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2697,8 +3126,20 @@
       <c r="F16">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="3">1-(1-C16/100)^(1/10)</f>
+        <v>1.2030876101728816E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I17" si="4">1-(1-D16/100)^(1/10)</f>
+        <v>9.2779300977702261E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J17" si="5">1-(1-E16/100)^(1/10)</f>
+        <v>1.4969120911949796E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2714,8 +3155,20 @@
       <c r="F17">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>4.802468625938916E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>1.8147484119748203E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>7.9805890987505457E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2723,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +3187,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +3201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -2765,7 +3218,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +3235,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2799,7 +3252,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -2816,7 +3269,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -2833,7 +3286,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>44</v>
       </c>
@@ -2850,7 +3303,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -2995,15 +3448,15 @@
         <v>1.5552314983594604</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:F40" si="0">D39/D35</f>
+        <f t="shared" ref="D40:F40" si="6">D39/D35</f>
         <v>1.2636507936507937</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.4253773057574064</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.4276352054878423</v>
       </c>
     </row>
@@ -3050,15 +3503,15 @@
         <v>1.3048913892795749E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:F43" si="1">D41/D39</f>
+        <f t="shared" ref="D43:F43" si="7">D41/D39</f>
         <v>1.1681949503831177E-2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.7058823529411761E-3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1669312282809215E-2</v>
       </c>
     </row>
@@ -3071,15 +3524,15 @@
         <v>0.12233397470909735</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:F44" si="2">1-EXP(-10*D43)</f>
+        <f t="shared" ref="D44:F44" si="8">1-EXP(-10*D43)</f>
         <v>0.11025421780225553</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.5968723547084589E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11014177155633498</v>
       </c>
     </row>
@@ -6497,7 +6950,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6989,11 +7442,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643FBBA-89F5-B445-A2BA-040B038DD7FB}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3">
+        <v>416</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>424</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>899</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8">
+        <v>264</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1836</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13/$B3</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E13">
+        <f>SQRT((D13)*(1-D13)/$B13)</f>
+        <v>6.0052569006892396E-2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
+        <f>F13/$B3</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="H13">
+        <f>SQRT((G13)*(1-G13)/$B13)</f>
+        <v>4.753898317288608E-2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13/$B3</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="K13">
+        <f>SQRT((J13)*(1-J13)/$B13)</f>
+        <v>3.062092212075216E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <f>C14/$B4</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E17" si="0">SQRT((D14)*(1-D14)/$B14)</f>
+        <v>6.3177210129837416E-2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <f>F14/$B4</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="1">SQRT((G14)*(1-G14)/$B14)</f>
+        <v>4.3339208602072375E-2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <f>I14/$B4</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K17" si="2">SQRT((J14)*(1-J14)/$B14)</f>
+        <v>2.2467523936912755E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <f>C15/$B5</f>
+        <v>0.25874125874125875</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.662264763836294E-2</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7">
+        <f>F15/$B5</f>
+        <v>0.11888111888111888</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.7064853276896682E-2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7">
+        <f>I15/$B5</f>
+        <v>2.7972027972027972E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>1.3789018034065247E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <f>C16/$B6</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.10255928633050294</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <f>F16/$B6</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>8.2230366703026442E-2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16/$B6</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>4.4409473678108838E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8">
+        <v>264</v>
+      </c>
+      <c r="C17" s="8">
+        <v>70</v>
+      </c>
+      <c r="D17" s="11">
+        <f>C17/$B7</f>
+        <v>0.26515151515151514</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.7167144620565822E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>33</v>
+      </c>
+      <c r="G17" s="11">
+        <f>F17/$B7</f>
+        <v>0.125</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.035434210246655E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>I17/$B7</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1.0550160967011991E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>213</v>
+      </c>
+      <c r="D23">
+        <v>1.9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23">
+        <f>ROUND(G23*$C23,0)</f>
+        <v>181</v>
+      </c>
+      <c r="G23">
+        <v>0.85</v>
+      </c>
+      <c r="H23">
+        <f>ROUND(I23*$C23,0)</f>
+        <v>198</v>
+      </c>
+      <c r="I23">
+        <v>0.93</v>
+      </c>
+      <c r="J23">
+        <f>ROUND(K23*$C23,0)</f>
+        <v>211</v>
+      </c>
+      <c r="K23">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>297</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:H27" si="3">ROUND(G24*$C24,0)</f>
+        <v>241</v>
+      </c>
+      <c r="G24">
+        <v>0.81</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="I24">
+        <v>0.94</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="4">ROUND(K24*$C24,0)</f>
+        <v>285</v>
+      </c>
+      <c r="K24">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>143</v>
+      </c>
+      <c r="C25">
+        <v>444</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="G25">
+        <v>0.87</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="I25">
+        <v>0.97</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="5">ROUND(K25*$C25,0)</f>
+        <v>422</v>
+      </c>
+      <c r="K25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>1.8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>0.95</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="I26">
+        <v>0.96</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="6">ROUND(K26*$C26,0)</f>
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="8">
+        <v>264</v>
+      </c>
+      <c r="C27">
+        <v>915</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>787</v>
+      </c>
+      <c r="G27">
+        <v>0.86</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="7">ROUND(K27*$C27,0)</f>
+        <v>878</v>
+      </c>
+      <c r="K27">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <f>J33/C33</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:K37" si="8">J34/C34</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10309278350515463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>191</v>
+      </c>
+      <c r="D37">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37">
+        <v>31</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.16230366492146597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E284F33-271F-2A4A-9C08-23D885B88892}">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>161</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <f>I3/B3</f>
+        <v>0.19875776397515527</v>
+      </c>
+      <c r="K3">
+        <f>SQRT((J3*(1-J3))/B3)</f>
+        <v>3.1450751724987132E-2</v>
+      </c>
+      <c r="L3">
+        <v>28.7</v>
+      </c>
+      <c r="M3">
+        <v>40.5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3">
+        <v>2.8</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">I4/B4</f>
+        <v>0.16935483870967741</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K5" si="1">SQRT((J4*(1-J4))/B4)</f>
+        <v>3.3681834066616699E-2</v>
+      </c>
+      <c r="L4">
+        <v>36.1</v>
+      </c>
+      <c r="M4">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4">
+        <v>37</v>
+      </c>
+      <c r="S4">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>285</v>
+      </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.18245614035087721</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.2877699031577287E-2</v>
+      </c>
+      <c r="L5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M5">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O5">
+        <v>2.9</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5">
+        <v>37</v>
+      </c>
+      <c r="S5">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0.12</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>0.47</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.12</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.02</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>0.12</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>0.44</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0.02</v>
+      </c>
+      <c r="I14">
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <v>0.32</v>
+      </c>
+      <c r="K14">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B88B80C-2A63-1744-B55A-7F2A4CD6DDF1}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7169,15 +8912,15 @@
         <v>105</v>
       </c>
       <c r="B19">
-        <f>B13/1000</f>
+        <f t="shared" ref="B19:D21" si="0">B13/1000</f>
         <v>0.02</v>
       </c>
       <c r="C19">
-        <f>C13/1000</f>
+        <f t="shared" si="0"/>
         <v>1.5300000000000001E-2</v>
       </c>
       <c r="D19">
-        <f>D13/1000</f>
+        <f t="shared" si="0"/>
         <v>2.47E-2</v>
       </c>
       <c r="F19">
@@ -7190,15 +8933,15 @@
         <v>106</v>
       </c>
       <c r="B20">
-        <f>B14/1000</f>
+        <f t="shared" si="0"/>
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="C20">
-        <f>C14/1000</f>
+        <f t="shared" si="0"/>
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="D20">
-        <f>D14/1000</f>
+        <f t="shared" si="0"/>
         <v>1.15E-2</v>
       </c>
     </row>
@@ -7207,15 +8950,15 @@
         <v>102</v>
       </c>
       <c r="B21">
-        <f>B15/1000</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21">
-        <f>C15/1000</f>
+        <f t="shared" si="0"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="D21">
-        <f>D15/1000</f>
+        <f t="shared" si="0"/>
         <v>9.6999999999999986E-3</v>
       </c>
     </row>
